--- a/data/trans_orig/P6701-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P6701-Dificultad-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>26503</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>16790</v>
+        <v>17004</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>37999</v>
+        <v>38352</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.09492832077052633</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06013950969686515</v>
+        <v>0.0609075751906101</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1361069653352145</v>
+        <v>0.1373725925032381</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>17</v>
@@ -764,19 +764,19 @@
         <v>18019</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>10531</v>
+        <v>10704</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>28738</v>
+        <v>27747</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08068278686015801</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04715489842143834</v>
+        <v>0.04792936273321996</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1286757239672209</v>
+        <v>0.1242418746329073</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>41</v>
@@ -785,19 +785,19 @@
         <v>44522</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>32330</v>
+        <v>31406</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>58175</v>
+        <v>60050</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08859719931571547</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06433686277890957</v>
+        <v>0.06249637314120535</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1157658258088586</v>
+        <v>0.1194971414234796</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>27762</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>19514</v>
+        <v>18082</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>40194</v>
+        <v>39774</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.09944096210378982</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.06989797214287065</v>
+        <v>0.06476747394434586</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1439687856124496</v>
+        <v>0.142465712198747</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>22</v>
@@ -835,19 +835,19 @@
         <v>23965</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>15250</v>
+        <v>15292</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>36307</v>
+        <v>35103</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1073037508751648</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.06828523473293853</v>
+        <v>0.06847029770102442</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1625687634459355</v>
+        <v>0.1571783247240028</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>48</v>
@@ -856,19 +856,19 @@
         <v>51727</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>38510</v>
+        <v>38884</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>65252</v>
+        <v>67547</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1029354096266634</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.07663447626122014</v>
+        <v>0.07737900335426169</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1298491220861284</v>
+        <v>0.1344177541864693</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>84044</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>68945</v>
+        <v>69064</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>99871</v>
+        <v>99987</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3010327945032217</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2469495790968301</v>
+        <v>0.247376109024429</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3577251119326889</v>
+        <v>0.3581387828765188</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>63</v>
@@ -906,19 +906,19 @@
         <v>67042</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>52837</v>
+        <v>54206</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>80946</v>
+        <v>81789</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3001877914896868</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2365826397094621</v>
+        <v>0.2427123902085809</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3624437108940617</v>
+        <v>0.3662177853236894</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>144</v>
@@ -927,19 +927,19 @@
         <v>151086</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>130988</v>
+        <v>129757</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>174230</v>
+        <v>172212</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3006572510703092</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2606624162765364</v>
+        <v>0.2582121581243507</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3467129442647032</v>
+        <v>0.3426982561400813</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>62755</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>48448</v>
+        <v>47782</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>78354</v>
+        <v>77909</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.224780788474328</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1735325718829762</v>
+        <v>0.1711480743976707</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2806541008132952</v>
+        <v>0.2790584199146203</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>46</v>
@@ -977,19 +977,19 @@
         <v>51712</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>39363</v>
+        <v>39509</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>66264</v>
+        <v>66422</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2315439059121562</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1762519577113382</v>
+        <v>0.1769072920334898</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2967018924841092</v>
+        <v>0.2974103748054461</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>104</v>
@@ -998,19 +998,19 @@
         <v>114467</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>94390</v>
+        <v>95561</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>133314</v>
+        <v>135499</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2277865107014798</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1878346763055965</v>
+        <v>0.1901631545478374</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2652918403078309</v>
+        <v>0.2696401042764217</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>78121</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>62229</v>
+        <v>63242</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>94048</v>
+        <v>96937</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2798171341481341</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2228966075575778</v>
+        <v>0.2265228619601384</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3368662916722889</v>
+        <v>0.3472146730961279</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>57</v>
@@ -1048,19 +1048,19 @@
         <v>62596</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>49388</v>
+        <v>49068</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>78156</v>
+        <v>77243</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2802817648628342</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2211388031550848</v>
+        <v>0.2197073072007545</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3499495445349622</v>
+        <v>0.345861650857174</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>129</v>
@@ -1069,19 +1069,19 @@
         <v>140717</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>119641</v>
+        <v>118973</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>163714</v>
+        <v>160823</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.280023629285832</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2380829264566431</v>
+        <v>0.2367539851173819</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3257857659646947</v>
+        <v>0.3200343173575741</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>30379</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>20754</v>
+        <v>21142</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>42161</v>
+        <v>41682</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07950979017304891</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0543200488460939</v>
+        <v>0.05533409734146679</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1103467517572526</v>
+        <v>0.1090952706146688</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>32</v>
@@ -1194,19 +1194,19 @@
         <v>36148</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>25218</v>
+        <v>25187</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>49128</v>
+        <v>50540</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1415600195149662</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09875697178947102</v>
+        <v>0.0986340852008062</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1923919483160989</v>
+        <v>0.1979205329406576</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>63</v>
@@ -1215,19 +1215,19 @@
         <v>66527</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>52856</v>
+        <v>51597</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>83284</v>
+        <v>84390</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1043672600243853</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0829210836933419</v>
+        <v>0.08094557031071935</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1306564308246326</v>
+        <v>0.132390986979842</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>35426</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>24444</v>
+        <v>24825</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>49934</v>
+        <v>48038</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.09272141581161318</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.06397657450863552</v>
+        <v>0.06497402188203173</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1306929875342335</v>
+        <v>0.1257294727231423</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>20</v>
@@ -1265,19 +1265,19 @@
         <v>20455</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>12604</v>
+        <v>13162</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>29505</v>
+        <v>30631</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.0801052981318246</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.04935726333064112</v>
+        <v>0.05154516158247555</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1155457762564839</v>
+        <v>0.1199546445737552</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>54</v>
@@ -1286,19 +1286,19 @@
         <v>55882</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>42853</v>
+        <v>42523</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>71081</v>
+        <v>71929</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.08766736898225835</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.06722734669494815</v>
+        <v>0.06670994364788609</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1115118878452852</v>
+        <v>0.1128417019525537</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>145264</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>126796</v>
+        <v>127350</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>164595</v>
+        <v>164593</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3801984338667902</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3318634369069972</v>
+        <v>0.3333124084651284</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4307950297113301</v>
+        <v>0.4307881353671717</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>76</v>
@@ -1336,19 +1336,19 @@
         <v>82612</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>68400</v>
+        <v>66883</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>98911</v>
+        <v>97768</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.323517688697233</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2678621813974459</v>
+        <v>0.2619217698380337</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3873451395061923</v>
+        <v>0.3828710810296426</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>217</v>
@@ -1357,19 +1357,19 @@
         <v>227876</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>202887</v>
+        <v>203947</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>254914</v>
+        <v>254220</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3574919921800105</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3182894812102257</v>
+        <v>0.3199525202495995</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3999090907458281</v>
+        <v>0.3988211310110294</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>95333</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>79592</v>
+        <v>78269</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>113596</v>
+        <v>113430</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2495162019714244</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2083150838343517</v>
+        <v>0.2048527041931944</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2973156531316589</v>
+        <v>0.2968801626861164</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>51</v>
@@ -1407,19 +1407,19 @@
         <v>58079</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>45576</v>
+        <v>44986</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>74109</v>
+        <v>72791</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2274415436565909</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1784794016404826</v>
+        <v>0.1761706526397044</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2902196242188108</v>
+        <v>0.2850585825142161</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>140</v>
@@ -1428,19 +1428,19 @@
         <v>153412</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>131068</v>
+        <v>132518</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>177783</v>
+        <v>176199</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2406730412070072</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2056191306522743</v>
+        <v>0.2078939757945304</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2789056535977293</v>
+        <v>0.2764217889633006</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>75671</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>61905</v>
+        <v>60654</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>93404</v>
+        <v>93208</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1980541581771233</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1620237755891464</v>
+        <v>0.1587484909857577</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2444661301750746</v>
+        <v>0.2439526459970745</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>55</v>
@@ -1478,19 +1478,19 @@
         <v>58062</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>45135</v>
+        <v>45052</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>72482</v>
+        <v>73929</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2273754499993854</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1767550439675012</v>
+        <v>0.1764278289705802</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.283847535145461</v>
+        <v>0.2895148760264009</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>128</v>
@@ -1499,19 +1499,19 @@
         <v>133733</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>114411</v>
+        <v>114263</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>154597</v>
+        <v>155523</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2098003376063386</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1794888716779935</v>
+        <v>0.1792567706323246</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2425320220561518</v>
+        <v>0.2439842144035515</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>33795</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>23790</v>
+        <v>23401</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>46596</v>
+        <v>48078</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07414057067413317</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05219140043710795</v>
+        <v>0.05133773092740292</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1022249111143313</v>
+        <v>0.1054769193690731</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>29</v>
@@ -1624,19 +1624,19 @@
         <v>31937</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>21861</v>
+        <v>21535</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>44885</v>
+        <v>43572</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1146099102001935</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07845122217618555</v>
+        <v>0.07727944725867274</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1610732056207542</v>
+        <v>0.1563608960282659</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>60</v>
@@ -1645,19 +1645,19 @@
         <v>65732</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>50523</v>
+        <v>51785</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>83074</v>
+        <v>83410</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0894946223415249</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06878751441974909</v>
+        <v>0.07050507369559261</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1131059865473252</v>
+        <v>0.1135629131079697</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>49789</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>36858</v>
+        <v>37393</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>65286</v>
+        <v>64415</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1092294746655448</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.08086005029053979</v>
+        <v>0.08203454161938176</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1432273381504891</v>
+        <v>0.1413168696773325</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>36</v>
@@ -1695,19 +1695,19 @@
         <v>37146</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>26759</v>
+        <v>27843</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>50325</v>
+        <v>50111</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1333028917235678</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.09602776362875705</v>
+        <v>0.09991706756914956</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1805960447344253</v>
+        <v>0.1798267078341452</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>83</v>
@@ -1716,19 +1716,19 @@
         <v>86935</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>70975</v>
+        <v>70708</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>105536</v>
+        <v>106455</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.118362919729098</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.09663295704903664</v>
+        <v>0.09626892319323369</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1436871036134233</v>
+        <v>0.1449384416579827</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>190585</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>167225</v>
+        <v>168585</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>213416</v>
+        <v>214531</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.4181153287759408</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3668660164865175</v>
+        <v>0.3698491471449341</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4682033462014302</v>
+        <v>0.4706493125898372</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>97</v>
@@ -1766,19 +1766,19 @@
         <v>104557</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>89202</v>
+        <v>89454</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>121610</v>
+        <v>121976</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3752102141115751</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3201092397585302</v>
+        <v>0.321012737412096</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4364070503718991</v>
+        <v>0.4377219187291265</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>278</v>
@@ -1787,19 +1787,19 @@
         <v>295142</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>266585</v>
+        <v>267179</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>323062</v>
+        <v>320728</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.4018371449689671</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3629570036027306</v>
+        <v>0.3637657536714191</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.439849826576832</v>
+        <v>0.436672144075179</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>112258</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>93414</v>
+        <v>94713</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>133958</v>
+        <v>131589</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.24627778074906</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2049362704313691</v>
+        <v>0.2077857785589786</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2938825266431525</v>
+        <v>0.2886859588433949</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>56</v>
@@ -1837,19 +1837,19 @@
         <v>57671</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>45794</v>
+        <v>45770</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>72119</v>
+        <v>71894</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2069553385383614</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1643360945691801</v>
+        <v>0.1642506072281531</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2588031104641461</v>
+        <v>0.2579982119682543</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>163</v>
@@ -1858,19 +1858,19 @@
         <v>169929</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>146969</v>
+        <v>147976</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>195804</v>
+        <v>193894</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2313588614767971</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2000991853268163</v>
+        <v>0.2014695063933939</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2665873700757294</v>
+        <v>0.2639868351708589</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>69393</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>54978</v>
+        <v>54939</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>86656</v>
+        <v>87749</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1522368451353213</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1206139999294714</v>
+        <v>0.1205272804559283</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1901099981789836</v>
+        <v>0.1925089108598101</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>45</v>
@@ -1908,19 +1908,19 @@
         <v>47351</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>36228</v>
+        <v>35954</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>61790</v>
+        <v>60788</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1699216454263022</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1300060156433429</v>
+        <v>0.1290220902024366</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2217370418206694</v>
+        <v>0.2181430592489274</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>109</v>
@@ -1929,19 +1929,19 @@
         <v>116743</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>96738</v>
+        <v>97312</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>137994</v>
+        <v>137596</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1589464514836129</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1317086001499303</v>
+        <v>0.1324903883329969</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1878790122008903</v>
+        <v>0.1873375825523232</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>34756</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>24671</v>
+        <v>24311</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>49039</v>
+        <v>48805</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1172742988597588</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.08324403001695885</v>
+        <v>0.0820290349994517</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1654650003909988</v>
+        <v>0.1646757936395296</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>25</v>
@@ -2054,19 +2054,19 @@
         <v>28490</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>18851</v>
+        <v>18270</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>41984</v>
+        <v>38967</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1527334194813859</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1010566722645457</v>
+        <v>0.09794328076945584</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2250691786378751</v>
+        <v>0.2088958686547107</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>54</v>
@@ -2075,19 +2075,19 @@
         <v>63247</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>49668</v>
+        <v>47721</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>82879</v>
+        <v>80660</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1309713911070701</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1028515086054084</v>
+        <v>0.09882145625354885</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1716250563266038</v>
+        <v>0.1670299603798078</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>35894</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>24778</v>
+        <v>24446</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>49718</v>
+        <v>48221</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1211139216734134</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.0836059498508795</v>
+        <v>0.08248472401390525</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1677555723657942</v>
+        <v>0.1627047802333711</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>22</v>
@@ -2125,19 +2125,19 @@
         <v>25001</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>17108</v>
+        <v>16761</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>36937</v>
+        <v>36984</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1340267158869206</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.09171676323406978</v>
+        <v>0.08985153657468641</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1980133354484886</v>
+        <v>0.1982668031467849</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>52</v>
@@ -2146,19 +2146,19 @@
         <v>60895</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>47084</v>
+        <v>47211</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>78483</v>
+        <v>78936</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1261018551137334</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.0975005937713813</v>
+        <v>0.097764837858537</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1625216988467625</v>
+        <v>0.1634604289733233</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>114104</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>95896</v>
+        <v>97128</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>131921</v>
+        <v>133614</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.385007346447748</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3235703539020737</v>
+        <v>0.3277277544759623</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4451242969266579</v>
+        <v>0.4508360466004462</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>63</v>
@@ -2196,19 +2196,19 @@
         <v>69425</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>54581</v>
+        <v>54617</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>84069</v>
+        <v>82900</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3721785963759278</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.292600916807901</v>
+        <v>0.2927961410148413</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4506865030348993</v>
+        <v>0.4444179644027232</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>164</v>
@@ -2217,19 +2217,19 @@
         <v>183529</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>161870</v>
+        <v>159808</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>206970</v>
+        <v>206059</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3800518774436957</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3352005462013155</v>
+        <v>0.3309309659189616</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.4285932629873171</v>
+        <v>0.4267065616891878</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>69014</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>55562</v>
+        <v>54993</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>85714</v>
+        <v>85155</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2328652890060922</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1874747604328535</v>
+        <v>0.1855563152676408</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2892142532651336</v>
+        <v>0.2873282533298173</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>36</v>
@@ -2267,19 +2267,19 @@
         <v>38951</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>28610</v>
+        <v>27114</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>51979</v>
+        <v>49852</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2088135698546666</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1533766200447723</v>
+        <v>0.1453533514670497</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2786530881695269</v>
+        <v>0.2672523776662457</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>101</v>
@@ -2288,19 +2288,19 @@
         <v>107965</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>89721</v>
+        <v>91526</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>125801</v>
+        <v>129394</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2235746295044415</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1857948668604713</v>
+        <v>0.1895330799226355</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2605096547209579</v>
+        <v>0.2679499238359626</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>42600</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>31964</v>
+        <v>32310</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>57173</v>
+        <v>56729</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1437391440129876</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1078511931616146</v>
+        <v>0.1090198020180513</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.192911597582771</v>
+        <v>0.1914129268320517</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>23</v>
@@ -2338,19 +2338,19 @@
         <v>24669</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>16158</v>
+        <v>16349</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>35958</v>
+        <v>35533</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1322476984010992</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.08662067625413866</v>
+        <v>0.0876474425671336</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1927679666707661</v>
+        <v>0.1904870800739878</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>67</v>
@@ -2359,19 +2359,19 @@
         <v>67269</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>52983</v>
+        <v>52848</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>83147</v>
+        <v>85667</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1393002468310593</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.109716961565158</v>
+        <v>0.1094368754163353</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1721803476407976</v>
+        <v>0.1773991484523049</v>
       </c>
     </row>
     <row r="27">
@@ -2463,19 +2463,19 @@
         <v>125432</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>103478</v>
+        <v>103396</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>149021</v>
+        <v>151408</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.08874215158428381</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.07320931351663586</v>
+        <v>0.0731517915595043</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1054309921457305</v>
+        <v>0.1071197253990517</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>103</v>
@@ -2484,19 +2484,19 @@
         <v>114595</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>93845</v>
+        <v>94844</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>134818</v>
+        <v>138358</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1214075147118815</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.09942363747655633</v>
+        <v>0.100482270713505</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1428324497839822</v>
+        <v>0.1465836172144122</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>218</v>
@@ -2505,19 +2505,19 @@
         <v>240027</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>209901</v>
+        <v>213454</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>273545</v>
+        <v>276633</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1018215068607408</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.08904180822357045</v>
+        <v>0.09054899809197493</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1160400690355839</v>
+        <v>0.1173499486087275</v>
       </c>
     </row>
     <row r="29">
@@ -2534,19 +2534,19 @@
         <v>148872</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>125299</v>
+        <v>125543</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>175129</v>
+        <v>174908</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1053256041280827</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.08864759115479993</v>
+        <v>0.08882021411276238</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1239018975763323</v>
+        <v>0.1237455224700579</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>100</v>
@@ -2555,19 +2555,19 @@
         <v>106567</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>88330</v>
+        <v>88025</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>127862</v>
+        <v>127188</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.112902396954754</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.09358139694659659</v>
+        <v>0.09325768263298206</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1354630454871115</v>
+        <v>0.1347489201149774</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>237</v>
@@ -2576,19 +2576,19 @@
         <v>255439</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>228937</v>
+        <v>226936</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>291831</v>
+        <v>287383</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.108359385349159</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.09711690244075048</v>
+        <v>0.09626791851260429</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1237968327587753</v>
+        <v>0.1219099924817061</v>
       </c>
     </row>
     <row r="30">
@@ -2605,19 +2605,19 @@
         <v>533997</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>501007</v>
+        <v>496374</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>569701</v>
+        <v>573697</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3777976377572336</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.354457541130787</v>
+        <v>0.3511792622526065</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4030572896826876</v>
+        <v>0.4058850187475009</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>299</v>
@@ -2626,19 +2626,19 @@
         <v>323636</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>295550</v>
+        <v>294534</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>353992</v>
+        <v>354051</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3428752884834682</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.3131205107687099</v>
+        <v>0.3120440520035675</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3750360074288215</v>
+        <v>0.3750992276014821</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>803</v>
@@ -2647,19 +2647,19 @@
         <v>857633</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>806619</v>
+        <v>809705</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>907315</v>
+        <v>907511</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3638145752865704</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.3421742567419459</v>
+        <v>0.3434831588992333</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3848900981822443</v>
+        <v>0.3849732244620587</v>
       </c>
     </row>
     <row r="31">
@@ -2676,19 +2676,19 @@
         <v>339361</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>309563</v>
+        <v>307091</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>373628</v>
+        <v>376310</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2400947582137505</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2190127931342102</v>
+        <v>0.2172640265484838</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2643382726282673</v>
+        <v>0.2662353175752048</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>189</v>
@@ -2697,19 +2697,19 @@
         <v>206412</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>180325</v>
+        <v>179390</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>232476</v>
+        <v>232867</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2186827471538436</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.191045245466764</v>
+        <v>0.1900548786871818</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.246296342130227</v>
+        <v>0.2467105246101538</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>508</v>
@@ -2718,19 +2718,19 @@
         <v>545773</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>502758</v>
+        <v>501676</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>589418</v>
+        <v>588513</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2315212946725067</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2132739583101333</v>
+        <v>0.2128149489689283</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2500359502634604</v>
+        <v>0.2496517084555846</v>
       </c>
     </row>
     <row r="32">
@@ -2747,19 +2747,19 @@
         <v>265785</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>236817</v>
+        <v>237258</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>298967</v>
+        <v>297364</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1880398483166493</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1675459088481041</v>
+        <v>0.1678573990182807</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2115163775729417</v>
+        <v>0.2103819184739054</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>180</v>
@@ -2768,19 +2768,19 @@
         <v>192678</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>167718</v>
+        <v>167860</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>218866</v>
+        <v>218635</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2041320526960528</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1776890302159508</v>
+        <v>0.1778389638459093</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2318776847824263</v>
+        <v>0.2316325212378647</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>433</v>
@@ -2789,19 +2789,19 @@
         <v>458462</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>418088</v>
+        <v>420933</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>498156</v>
+        <v>495736</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1944832378310231</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1773560233961209</v>
+        <v>0.1785629619306456</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2113217337971833</v>
+        <v>0.2102952359228973</v>
       </c>
     </row>
     <row r="33">
@@ -3133,19 +3133,19 @@
         <v>10969</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5245</v>
+        <v>5541</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>19718</v>
+        <v>19273</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03736377278080706</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01786713811277738</v>
+        <v>0.01887462621298932</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06716382674222937</v>
+        <v>0.06564933252879457</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>21</v>
@@ -3154,19 +3154,19 @@
         <v>20649</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>13418</v>
+        <v>13284</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>31261</v>
+        <v>30297</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07448250760540992</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04840124521381671</v>
+        <v>0.0479171931043014</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1127614240863997</v>
+        <v>0.1092861128640765</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>31</v>
@@ -3175,19 +3175,19 @@
         <v>31618</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>22773</v>
+        <v>21499</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>43829</v>
+        <v>43900</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0553916218955734</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03989542548863372</v>
+        <v>0.03766340077469727</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07678486378509898</v>
+        <v>0.07690793763959569</v>
       </c>
     </row>
     <row r="5">
@@ -3204,19 +3204,19 @@
         <v>22528</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>15506</v>
+        <v>14306</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>33517</v>
+        <v>33088</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.07673555113057773</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0528174785836884</v>
+        <v>0.04873035003883835</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1141680701537369</v>
+        <v>0.1127067018353001</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>24</v>
@@ -3225,19 +3225,19 @@
         <v>23938</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>15738</v>
+        <v>16013</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>34031</v>
+        <v>34775</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.0863468003145397</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.05676678682337494</v>
+        <v>0.05775879320614799</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1227521215976426</v>
+        <v>0.1254367365057992</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>46</v>
@@ -3246,19 +3246,19 @@
         <v>46466</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>34273</v>
+        <v>34684</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>61427</v>
+        <v>58977</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.08140354832691647</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.06004280301527636</v>
+        <v>0.06076352292157478</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1076141080359662</v>
+        <v>0.1033210656816605</v>
       </c>
     </row>
     <row r="6">
@@ -3275,19 +3275,19 @@
         <v>90024</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>73029</v>
+        <v>74343</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>107491</v>
+        <v>106886</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.30664432679596</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2487553997467264</v>
+        <v>0.2532301790426282</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3661425310633479</v>
+        <v>0.3640806583399264</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>108</v>
@@ -3296,19 +3296,19 @@
         <v>109987</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>94045</v>
+        <v>94523</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>127297</v>
+        <v>126744</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3967355721550321</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3392295685572644</v>
+        <v>0.3409532793483189</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4591718654037736</v>
+        <v>0.4571799021183323</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>190</v>
@@ -3317,19 +3317,19 @@
         <v>200011</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>177141</v>
+        <v>176864</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>221742</v>
+        <v>223884</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3503998962023352</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3103327166335538</v>
+        <v>0.3098481054649231</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3884693095138429</v>
+        <v>0.3922227830907545</v>
       </c>
     </row>
     <row r="7">
@@ -3346,19 +3346,19 @@
         <v>109244</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>92105</v>
+        <v>93669</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>126472</v>
+        <v>128351</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3721113051628671</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3137337521423771</v>
+        <v>0.3190589964656033</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4307943993058747</v>
+        <v>0.4371943886057336</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>58</v>
@@ -3367,19 +3367,19 @@
         <v>59988</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>46419</v>
+        <v>45649</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>75212</v>
+        <v>73645</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2163831162117773</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1674379172187101</v>
+        <v>0.16465914601213</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2712980918631178</v>
+        <v>0.2656439295787855</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>158</v>
@@ -3388,19 +3388,19 @@
         <v>169232</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>147129</v>
+        <v>145534</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>191032</v>
+        <v>192931</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2964771461164426</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2577554160143556</v>
+        <v>0.2549616146449627</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3346695889982843</v>
+        <v>0.3379949941973909</v>
       </c>
     </row>
     <row r="8">
@@ -3417,19 +3417,19 @@
         <v>60813</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>47669</v>
+        <v>48155</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>76406</v>
+        <v>77147</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2071450441297881</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1623723599372231</v>
+        <v>0.1640281443108848</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2602590754104409</v>
+        <v>0.2627805631668081</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>59</v>
@@ -3438,19 +3438,19 @@
         <v>62669</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>49723</v>
+        <v>48603</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>77439</v>
+        <v>76879</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2260520037132409</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.17935522349401</v>
+        <v>0.175317537424649</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2793304674474117</v>
+        <v>0.2773109776657106</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>114</v>
@@ -3459,19 +3459,19 @@
         <v>123482</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>104016</v>
+        <v>104907</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>144996</v>
+        <v>144623</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2163277874587324</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.18222567936407</v>
+        <v>0.1837860053246481</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2540186163907236</v>
+        <v>0.2533646373150274</v>
       </c>
     </row>
     <row r="9">
@@ -3563,19 +3563,19 @@
         <v>16800</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>10434</v>
+        <v>9917</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>27671</v>
+        <v>27387</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04302478745591489</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02672101664326346</v>
+        <v>0.02539703181474126</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07086629826887975</v>
+        <v>0.07013719235508374</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>14</v>
@@ -3584,19 +3584,19 @@
         <v>13660</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>7807</v>
+        <v>7655</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>21729</v>
+        <v>22560</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05058328680635153</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02890892766017694</v>
+        <v>0.02834612966270298</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08046022043812336</v>
+        <v>0.08353861201985104</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>29</v>
@@ -3605,19 +3605,19 @@
         <v>30460</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>20183</v>
+        <v>20475</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>41674</v>
+        <v>42457</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04611503668299332</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03055586448871744</v>
+        <v>0.03099751468030404</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06309162201313165</v>
+        <v>0.06427755939554261</v>
       </c>
     </row>
     <row r="11">
@@ -3634,19 +3634,19 @@
         <v>37558</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>27992</v>
+        <v>27022</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>49985</v>
+        <v>49665</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.09618624335689079</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.07168780322539914</v>
+        <v>0.0692029995481839</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1280107150304072</v>
+        <v>0.1271912672471424</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>35</v>
@@ -3655,19 +3655,19 @@
         <v>36947</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>26641</v>
+        <v>26607</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>49730</v>
+        <v>50353</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1368150263543178</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.09865275453783932</v>
+        <v>0.09852449606015334</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1841483996938307</v>
+        <v>0.1864565549894792</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>72</v>
@@ -3676,19 +3676,19 @@
         <v>74506</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>60233</v>
+        <v>59131</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>92633</v>
+        <v>93406</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1127970889009449</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.09118985767136925</v>
+        <v>0.08952055915233224</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1402411353603386</v>
+        <v>0.1414119591813168</v>
       </c>
     </row>
     <row r="12">
@@ -3705,19 +3705,19 @@
         <v>135043</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>117117</v>
+        <v>113014</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>153805</v>
+        <v>151472</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3458440751343665</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2999348944760234</v>
+        <v>0.2894278410511048</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3938939005801792</v>
+        <v>0.3879171027332319</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>94</v>
@@ -3726,19 +3726,19 @@
         <v>95164</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>79770</v>
+        <v>79566</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>110741</v>
+        <v>112124</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3523891957050422</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2953873519841718</v>
+        <v>0.2946322017237588</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.410072929187083</v>
+        <v>0.4151931426357825</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>222</v>
@@ -3747,19 +3747,19 @@
         <v>230207</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>206020</v>
+        <v>204532</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>256112</v>
+        <v>253786</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3485200102435621</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.311902490959175</v>
+        <v>0.309649529181898</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3877396159510836</v>
+        <v>0.3842176258420865</v>
       </c>
     </row>
     <row r="13">
@@ -3776,19 +3776,19 @@
         <v>123650</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>104806</v>
+        <v>108169</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>142168</v>
+        <v>145804</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3166651809915781</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2684059455084167</v>
+        <v>0.2770191387883815</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3640905920866199</v>
+        <v>0.3734035131408531</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>69</v>
@@ -3797,19 +3797,19 @@
         <v>71510</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>56960</v>
+        <v>57599</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>86524</v>
+        <v>87045</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2648002013151209</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2109212413299842</v>
+        <v>0.2132891285004895</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3203970870875816</v>
+        <v>0.3223268781224956</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>187</v>
@@ -3818,19 +3818,19 @@
         <v>195160</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>171979</v>
+        <v>172945</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>218308</v>
+        <v>219906</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.295460480702975</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2603661635919405</v>
+        <v>0.2618285491814667</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3305053815863243</v>
+        <v>0.3329247805268751</v>
       </c>
     </row>
     <row r="14">
@@ -3847,19 +3847,19 @@
         <v>77423</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>62775</v>
+        <v>62185</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>95382</v>
+        <v>94169</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1982797130612497</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1607660529447159</v>
+        <v>0.1592553488282588</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.244271320232445</v>
+        <v>0.241165967905632</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>51</v>
@@ -3868,19 +3868,19 @@
         <v>52772</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>40710</v>
+        <v>40920</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>67506</v>
+        <v>66761</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1954122898191676</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1507477001247869</v>
+        <v>0.1515244195758763</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2499736980431094</v>
+        <v>0.2472152026692769</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>124</v>
@@ -3889,19 +3889,19 @@
         <v>130195</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>111276</v>
+        <v>112008</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>154105</v>
+        <v>150690</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1971073834695247</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1684655741736291</v>
+        <v>0.1695736434309466</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2333068728074757</v>
+        <v>0.2281355976773683</v>
       </c>
     </row>
     <row r="15">
@@ -3993,19 +3993,19 @@
         <v>47984</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>35409</v>
+        <v>34518</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>63060</v>
+        <v>62600</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1051850828330437</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07761923614067737</v>
+        <v>0.07566542892139386</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1382331406710758</v>
+        <v>0.1372243868772435</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>17</v>
@@ -4014,19 +4014,19 @@
         <v>16771</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>9653</v>
+        <v>10453</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>25937</v>
+        <v>25905</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05770516915614706</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03321245150047304</v>
+        <v>0.03596576805922135</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08924254996186175</v>
+        <v>0.08913240538247039</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>60</v>
@@ -4035,19 +4035,19 @@
         <v>64755</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>49589</v>
+        <v>50418</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>80284</v>
+        <v>83455</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.08670771833514132</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06639998997137837</v>
+        <v>0.06751039087771635</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1075009660832389</v>
+        <v>0.1117471365218373</v>
       </c>
     </row>
     <row r="17">
@@ -4064,19 +4064,19 @@
         <v>66472</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>53111</v>
+        <v>52532</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>83194</v>
+        <v>83425</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1457112705693475</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1164226789406409</v>
+        <v>0.1151544746938099</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1823687877973411</v>
+        <v>0.1828736974491332</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>42</v>
@@ -4085,19 +4085,19 @@
         <v>41402</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>30664</v>
+        <v>30563</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>55056</v>
+        <v>54312</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1424545092720036</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1055058903088672</v>
+        <v>0.105158738432697</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1894323574598658</v>
+        <v>0.1868746527513612</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>104</v>
@@ -4106,19 +4106,19 @@
         <v>107874</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>89510</v>
+        <v>90121</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>127474</v>
+        <v>128497</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1444438637669007</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1198544974236916</v>
+        <v>0.1206724011841131</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.170688524054648</v>
+        <v>0.1720585301982628</v>
       </c>
     </row>
     <row r="18">
@@ -4135,19 +4135,19 @@
         <v>171704</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>151125</v>
+        <v>151682</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>193320</v>
+        <v>195549</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3763888261929809</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.331277956286888</v>
+        <v>0.332498349067304</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4237718970698113</v>
+        <v>0.4286578069194725</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>119</v>
@@ -4156,19 +4156,19 @@
         <v>117720</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>103054</v>
+        <v>103063</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>135449</v>
+        <v>135493</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.4050433108138065</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3545832494382329</v>
+        <v>0.354614588424385</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4660461703503751</v>
+        <v>0.4661961070276137</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>282</v>
@@ -4177,19 +4177,19 @@
         <v>289424</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>263112</v>
+        <v>262909</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>317968</v>
+        <v>318087</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3875400544879928</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.352307262751768</v>
+        <v>0.3520361283934014</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4257598156088032</v>
+        <v>0.425919884795142</v>
       </c>
     </row>
     <row r="19">
@@ -4206,19 +4206,19 @@
         <v>97866</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>82718</v>
+        <v>80516</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>118530</v>
+        <v>117769</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2145308957119177</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1813242303577678</v>
+        <v>0.1764984489906438</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2598259984828442</v>
+        <v>0.2581592012807135</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>67</v>
@@ -4227,19 +4227,19 @@
         <v>67938</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>53153</v>
+        <v>54675</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>81546</v>
+        <v>84143</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2337564549360712</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1828865416579687</v>
+        <v>0.1881214284673988</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2805793561277061</v>
+        <v>0.2895156953922958</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>162</v>
@@ -4248,19 +4248,19 @@
         <v>165804</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>145565</v>
+        <v>144374</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>188682</v>
+        <v>189477</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2220127472560908</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1949119821965749</v>
+        <v>0.1933177606314458</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2526462009824574</v>
+        <v>0.25370997448099</v>
       </c>
     </row>
     <row r="20">
@@ -4277,19 +4277,19 @@
         <v>72162</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>57258</v>
+        <v>56261</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>89753</v>
+        <v>92109</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1581839246927101</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1255135866636463</v>
+        <v>0.1233294786579642</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1967458969045916</v>
+        <v>0.2019098075584605</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>46</v>
@@ -4298,19 +4298,19 @@
         <v>46804</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>36236</v>
+        <v>35050</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>59254</v>
+        <v>60446</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1610405558219717</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1246778888560921</v>
+        <v>0.120597782508032</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2038764962744213</v>
+        <v>0.2079807165868882</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>110</v>
@@ -4319,19 +4319,19 @@
         <v>118966</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>101419</v>
+        <v>99667</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>143759</v>
+        <v>141741</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1592956161538744</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1358005043148551</v>
+        <v>0.1334551312038693</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1924942350197459</v>
+        <v>0.1897918770750913</v>
       </c>
     </row>
     <row r="21">
@@ -4423,19 +4423,19 @@
         <v>20975</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>12698</v>
+        <v>12921</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>30262</v>
+        <v>31626</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.07623217829036291</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04614924980273728</v>
+        <v>0.04695927155444213</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.109984114267879</v>
+        <v>0.1149419170645629</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>32</v>
@@ -4444,19 +4444,19 @@
         <v>33183</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>23675</v>
+        <v>23001</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>44153</v>
+        <v>44352</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1709896651350641</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1219962366166586</v>
+        <v>0.1185227386654762</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2275194152039395</v>
+        <v>0.228542053501399</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>51</v>
@@ -4465,19 +4465,19 @@
         <v>54158</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>40803</v>
+        <v>41471</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>68939</v>
+        <v>69240</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.115423227259889</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.08696111863047401</v>
+        <v>0.08838454430078341</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1469241368942439</v>
+        <v>0.1475660420492206</v>
       </c>
     </row>
     <row r="23">
@@ -4494,19 +4494,19 @@
         <v>40849</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>29726</v>
+        <v>30033</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>52698</v>
+        <v>55190</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1484618345109662</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1080367462358014</v>
+        <v>0.109152684403664</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1915256588442432</v>
+        <v>0.200583248025917</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>31</v>
@@ -4515,19 +4515,19 @@
         <v>32839</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>23188</v>
+        <v>23385</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>44883</v>
+        <v>44845</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1692200018240566</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1194881648848831</v>
+        <v>0.1205013919272256</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2312822356147621</v>
+        <v>0.2310859373185846</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>68</v>
@@ -4536,19 +4536,19 @@
         <v>73688</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>58300</v>
+        <v>57530</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>90750</v>
+        <v>91719</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1570472706466696</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1242513661380089</v>
+        <v>0.1226096595749953</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1934096576843619</v>
+        <v>0.195474264597821</v>
       </c>
     </row>
     <row r="24">
@@ -4565,19 +4565,19 @@
         <v>106101</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>89260</v>
+        <v>88723</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>123374</v>
+        <v>122945</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3856126528885538</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3244078076941087</v>
+        <v>0.3224551379431552</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4483892778860966</v>
+        <v>0.4468302560209003</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>64</v>
@@ -4586,19 +4586,19 @@
         <v>68140</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>55579</v>
+        <v>54206</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>82778</v>
+        <v>82212</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3511243084178287</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2863951087330837</v>
+        <v>0.2793233417819193</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4265537248264051</v>
+        <v>0.4236353014912683</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>162</v>
@@ -4607,19 +4607,19 @@
         <v>174241</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>152789</v>
+        <v>152801</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>197201</v>
+        <v>195699</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3713485093149144</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3256280111952298</v>
+        <v>0.3256551627303755</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.4202805916922686</v>
+        <v>0.4170810749475983</v>
       </c>
     </row>
     <row r="25">
@@ -4636,19 +4636,19 @@
         <v>62667</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>49816</v>
+        <v>48936</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>77375</v>
+        <v>77688</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2277555583510408</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1810521854296084</v>
+        <v>0.1778524251976</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2812096466274604</v>
+        <v>0.2823478126384784</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>36</v>
@@ -4657,19 +4657,19 @@
         <v>36563</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>27564</v>
+        <v>26859</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>50190</v>
+        <v>49268</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.188407165037372</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1420388624822725</v>
+        <v>0.1384035914479439</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2586253088796775</v>
+        <v>0.253876378166186</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>94</v>
@@ -4678,19 +4678,19 @@
         <v>99230</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>80738</v>
+        <v>82506</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>118164</v>
+        <v>116594</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2114813317903941</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1720718989553127</v>
+        <v>0.1758395630496165</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2518346373441911</v>
+        <v>0.2484898225445412</v>
       </c>
     </row>
     <row r="26">
@@ -4707,19 +4707,19 @@
         <v>44557</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>32745</v>
+        <v>32858</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>59820</v>
+        <v>60262</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1619377759590763</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.119007978112624</v>
+        <v>0.1194176153562608</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2174079173447785</v>
+        <v>0.2190143413124727</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>21</v>
@@ -4728,19 +4728,19 @@
         <v>23338</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>14585</v>
+        <v>14919</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>33955</v>
+        <v>34075</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1202588595856786</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.07515543285946583</v>
+        <v>0.07687780346494384</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1749674611268372</v>
+        <v>0.1755888015458472</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>58</v>
@@ -4749,19 +4749,19 @@
         <v>67895</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>52769</v>
+        <v>52789</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>83083</v>
+        <v>84723</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1446996609881329</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1124639836283797</v>
+        <v>0.1125058887932033</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1770697441753002</v>
+        <v>0.1805635452837172</v>
       </c>
     </row>
     <row r="27">
@@ -4853,19 +4853,19 @@
         <v>96729</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>79480</v>
+        <v>79635</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>117332</v>
+        <v>115730</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.06834067125321862</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.05615398058754797</v>
+        <v>0.05626355910436224</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.08289707662644737</v>
+        <v>0.08176517274032361</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>84</v>
@@ -4874,19 +4874,19 @@
         <v>84263</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>67598</v>
+        <v>68472</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>101482</v>
+        <v>102500</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.08165156853694935</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.06550287003920224</v>
+        <v>0.06634984902463406</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.09833720478340102</v>
+        <v>0.09932382500429551</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>171</v>
@@ -4895,19 +4895,19 @@
         <v>180992</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>154591</v>
+        <v>154481</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>209330</v>
+        <v>208496</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.07395346848354492</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.0631663215748005</v>
+        <v>0.06312119426675802</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.08553267419027195</v>
+        <v>0.08519159982666488</v>
       </c>
     </row>
     <row r="29">
@@ -4924,19 +4924,19 @@
         <v>167407</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>142102</v>
+        <v>143814</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>191164</v>
+        <v>193590</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1182762966578831</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1003977771438275</v>
+        <v>0.1016073455731246</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1350607885416711</v>
+        <v>0.1367748898475218</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>132</v>
@@ -4945,19 +4945,19 @@
         <v>135127</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>113424</v>
+        <v>116090</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>156969</v>
+        <v>158623</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1309392357262057</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1099085181100811</v>
+        <v>0.1124920503909564</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1521046662480203</v>
+        <v>0.1537076005725147</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>290</v>
@@ -4966,19 +4966,19 @@
         <v>302534</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>269658</v>
+        <v>272527</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>334973</v>
+        <v>337824</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1236158697772207</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1101828297160179</v>
+        <v>0.1113547623641201</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.136870601461726</v>
+        <v>0.1380353521729955</v>
       </c>
     </row>
     <row r="30">
@@ -4995,19 +4995,19 @@
         <v>502873</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>466389</v>
+        <v>470102</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>536389</v>
+        <v>541962</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3552890139400041</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3295123763375292</v>
+        <v>0.3321359230126485</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3789693005495948</v>
+        <v>0.3829066465357076</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>385</v>
@@ -5016,19 +5016,19 @@
         <v>391011</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>359586</v>
+        <v>355081</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>424130</v>
+        <v>423710</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3788934002234277</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.3484425949953928</v>
+        <v>0.3440769632424327</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.4109860617682692</v>
+        <v>0.410579288488251</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>856</v>
@@ -5037,19 +5037,19 @@
         <v>893884</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>846616</v>
+        <v>847473</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>941821</v>
+        <v>939109</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3652422598505622</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.3459287584087156</v>
+        <v>0.3462785826807549</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3848293768876798</v>
+        <v>0.3837215380285053</v>
       </c>
     </row>
     <row r="31">
@@ -5066,19 +5066,19 @@
         <v>393427</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>361510</v>
+        <v>360136</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>430572</v>
+        <v>425587</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2779633855267873</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2554139623910102</v>
+        <v>0.2544430589747085</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3042070219227023</v>
+        <v>0.3006855232239536</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>230</v>
@@ -5087,19 +5087,19 @@
         <v>235999</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>207643</v>
+        <v>208557</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>263846</v>
+        <v>265347</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2286850464460331</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.201207912890878</v>
+        <v>0.2020935884626134</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2556690772006151</v>
+        <v>0.2571241280924418</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>601</v>
@@ -5108,19 +5108,19 @@
         <v>629425</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>586317</v>
+        <v>588792</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>676300</v>
+        <v>674758</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2571842209662134</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2395700735488626</v>
+        <v>0.2405812360315617</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.27633715212689</v>
+        <v>0.2757070190292172</v>
       </c>
     </row>
     <row r="32">
@@ -5137,19 +5137,19 @@
         <v>254955</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>225375</v>
+        <v>226408</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>288847</v>
+        <v>286565</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1801306326221068</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1592314064122745</v>
+        <v>0.1599613542935436</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2040756116918741</v>
+        <v>0.2024636872869259</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>177</v>
@@ -5158,19 +5158,19 @@
         <v>185582</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>161611</v>
+        <v>160204</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>211973</v>
+        <v>213987</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1798307490673842</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1566027130623052</v>
+        <v>0.1552394763609165</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2054038566567783</v>
+        <v>0.2073556817772519</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>406</v>
@@ -5179,19 +5179,19 @@
         <v>440537</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>401452</v>
+        <v>401532</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>478646</v>
+        <v>478062</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1800041809224588</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1640341135816268</v>
+        <v>0.1640667445784352</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1955755160951208</v>
+        <v>0.1953367703134465</v>
       </c>
     </row>
     <row r="33">
@@ -5526,16 +5526,16 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6779</v>
+        <v>5806</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.03074369716543386</v>
+        <v>0.03074369716543385</v>
       </c>
       <c r="H4" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1754464272615916</v>
+        <v>0.1502629619970562</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>8</v>
@@ -5544,19 +5544,19 @@
         <v>6782</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3036</v>
+        <v>2896</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>12301</v>
+        <v>12448</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.1750626905323929</v>
+        <v>0.1750626905323928</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07837103137859704</v>
+        <v>0.07473668766112194</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.317498688409603</v>
+        <v>0.3212994606823252</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>9</v>
@@ -5565,19 +5565,19 @@
         <v>7970</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3799</v>
+        <v>3723</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>15415</v>
+        <v>15041</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.1030000544733823</v>
+        <v>0.1030000544733824</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04908808525690546</v>
+        <v>0.04810951054866176</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1992110691754455</v>
+        <v>0.1943684290478457</v>
       </c>
     </row>
     <row r="5">
@@ -5607,19 +5607,19 @@
         <v>5074</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2088</v>
+        <v>1999</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>10025</v>
+        <v>9522</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.1309606628376437</v>
+        <v>0.1309606628376436</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.0538853667962863</v>
+        <v>0.05158918010736183</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2587451519738327</v>
+        <v>0.2457737359711245</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>6</v>
@@ -5628,19 +5628,19 @@
         <v>5074</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2145</v>
+        <v>2198</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>10836</v>
+        <v>10807</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.06556822651348253</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02772582290019779</v>
+        <v>0.0284103698414921</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1400350292806352</v>
+        <v>0.1396592314451436</v>
       </c>
     </row>
     <row r="6">
@@ -5657,19 +5657,19 @@
         <v>12257</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5656</v>
+        <v>6133</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>19810</v>
+        <v>19884</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.3172146556354392</v>
+        <v>0.317214655635439</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1463931634366178</v>
+        <v>0.158728879084912</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5126955299521381</v>
+        <v>0.5146167833489577</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>7</v>
@@ -5678,19 +5678,19 @@
         <v>4961</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>2355</v>
+        <v>1966</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>9383</v>
+        <v>9551</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1280614505432935</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.06077651121003892</v>
+        <v>0.05075055079698825</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2421916555683135</v>
+        <v>0.2465152867501002</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>16</v>
@@ -5699,19 +5699,19 @@
         <v>17218</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>10263</v>
+        <v>9989</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>27342</v>
+        <v>26728</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2225111016941404</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1326340847023316</v>
+        <v>0.1290856457221402</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3533367559550039</v>
+        <v>0.3454055768693948</v>
       </c>
     </row>
     <row r="7">
@@ -5728,19 +5728,19 @@
         <v>14051</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7505</v>
+        <v>6892</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>21903</v>
+        <v>22091</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.3636576135867533</v>
+        <v>0.3636576135867532</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1942402077633854</v>
+        <v>0.1783793980214324</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5668577268371107</v>
+        <v>0.5717392270534863</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>17</v>
@@ -5749,19 +5749,19 @@
         <v>14300</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>10050</v>
+        <v>9084</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>20675</v>
+        <v>20427</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3691078042284028</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2594104297552995</v>
+        <v>0.2344600749995874</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5336425545018364</v>
+        <v>0.5272556695863725</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>29</v>
@@ -5770,19 +5770,19 @@
         <v>28352</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>19595</v>
+        <v>19836</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>38551</v>
+        <v>38280</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3663863668382267</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2532270363094213</v>
+        <v>0.256343610074049</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4981878748460809</v>
+        <v>0.4946904318059601</v>
       </c>
     </row>
     <row r="8">
@@ -5799,19 +5799,19 @@
         <v>11143</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>4418</v>
+        <v>4321</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>21365</v>
+        <v>22248</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.2883840336123738</v>
+        <v>0.2883840336123737</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1143314755016548</v>
+        <v>0.1118419493700319</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5529290595743288</v>
+        <v>0.5757933002957687</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>8</v>
@@ -5820,19 +5820,19 @@
         <v>7625</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>3787</v>
+        <v>3620</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>13034</v>
+        <v>13151</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.1968073918582672</v>
+        <v>0.1968073918582671</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.09774497791402721</v>
+        <v>0.09342972809186498</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3364101285233603</v>
+        <v>0.3394477785274417</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>13</v>
@@ -5841,19 +5841,19 @@
         <v>18768</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>10737</v>
+        <v>10852</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>34920</v>
+        <v>32943</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2425342504807679</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1387487211314198</v>
+        <v>0.1402444370394794</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4512620507450669</v>
+        <v>0.4257156030618445</v>
       </c>
     </row>
     <row r="9">
@@ -5945,19 +5945,19 @@
         <v>7415</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3329</v>
+        <v>3423</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>15047</v>
+        <v>15785</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06346013767512615</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02848754799907292</v>
+        <v>0.02929504810660867</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1287780883269829</v>
+        <v>0.1350961277224289</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>7</v>
@@ -5966,19 +5966,19 @@
         <v>5615</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2265</v>
+        <v>2182</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>10494</v>
+        <v>10679</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05718053368826514</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02306122009520532</v>
+        <v>0.02221484016351953</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1068592069546132</v>
+        <v>0.1087501800745611</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>14</v>
@@ -5987,19 +5987,19 @@
         <v>13030</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>7125</v>
+        <v>7628</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>21980</v>
+        <v>21714</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.06059249898174439</v>
+        <v>0.0605924989817444</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03313406881808801</v>
+        <v>0.03547234220179559</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1022143730017534</v>
+        <v>0.1009752254845737</v>
       </c>
     </row>
     <row r="11">
@@ -6016,19 +6016,19 @@
         <v>10591</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>5129</v>
+        <v>4815</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>21783</v>
+        <v>20272</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.09064371178799431</v>
+        <v>0.0906437117879943</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.04389264180823448</v>
+        <v>0.04121282923475277</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.186432182847612</v>
+        <v>0.1735033643930291</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>17</v>
@@ -6037,19 +6037,19 @@
         <v>14183</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>8996</v>
+        <v>8385</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>22736</v>
+        <v>20965</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1444319237246301</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.09160827225919262</v>
+        <v>0.08538293330282869</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2315261941367935</v>
+        <v>0.2134951943839963</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>25</v>
@@ -6058,19 +6058,19 @@
         <v>24774</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>16593</v>
+        <v>16080</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>37592</v>
+        <v>36916</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1152065915683191</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.07716252072414045</v>
+        <v>0.07477424637494512</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.174812711324147</v>
+        <v>0.1716699873352165</v>
       </c>
     </row>
     <row r="12">
@@ -6087,19 +6087,19 @@
         <v>37747</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>27000</v>
+        <v>27701</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>51225</v>
+        <v>49852</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3230559367972551</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2310808845241861</v>
+        <v>0.2370845785421753</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4384084629368034</v>
+        <v>0.426661197495264</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>29</v>
@@ -6108,19 +6108,19 @@
         <v>23390</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>15993</v>
+        <v>16776</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>32323</v>
+        <v>32645</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2381819191074448</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1628558249941434</v>
+        <v>0.1708345750159814</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3291514547072401</v>
+        <v>0.3324338745775442</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>60</v>
@@ -6129,19 +6129,19 @@
         <v>61136</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>47630</v>
+        <v>47758</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>76371</v>
+        <v>76368</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2842974390162938</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2214902638729843</v>
+        <v>0.2220848151787641</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3551438537911482</v>
+        <v>0.3551288131207447</v>
       </c>
     </row>
     <row r="13">
@@ -6158,19 +6158,19 @@
         <v>42451</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>30697</v>
+        <v>30426</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>54774</v>
+        <v>54794</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.3633163578498901</v>
+        <v>0.36331635784989</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.262724222939787</v>
+        <v>0.260405303870352</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4687834656822782</v>
+        <v>0.468962111511</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>35</v>
@@ -6179,19 +6179,19 @@
         <v>28287</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>20651</v>
+        <v>20602</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>37181</v>
+        <v>36289</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.2880535496582264</v>
+        <v>0.2880535496582265</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2102937161309488</v>
+        <v>0.2097987648030194</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3786260809190816</v>
+        <v>0.3695353746640005</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>69</v>
@@ -6200,19 +6200,19 @@
         <v>70738</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>55920</v>
+        <v>56324</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>86109</v>
+        <v>86741</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.3289469069427048</v>
+        <v>0.3289469069427047</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2600431013109826</v>
+        <v>0.2619187660262535</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4004291573046039</v>
+        <v>0.4033665617900001</v>
       </c>
     </row>
     <row r="14">
@@ -6229,19 +6229,19 @@
         <v>18639</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>10498</v>
+        <v>9831</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>31286</v>
+        <v>30326</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1595238558897344</v>
+        <v>0.1595238558897343</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.08985063588497461</v>
+        <v>0.08413792950342849</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2677662092031279</v>
+        <v>0.2595454588953993</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>31</v>
@@ -6250,19 +6250,19 @@
         <v>26726</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>18565</v>
+        <v>19554</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>35217</v>
+        <v>35321</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2721520738214336</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.18904768775694</v>
+        <v>0.1991210774219422</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3586266236776743</v>
+        <v>0.3596788607952448</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>43</v>
@@ -6271,19 +6271,19 @@
         <v>45365</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>33153</v>
+        <v>33914</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>60077</v>
+        <v>59204</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.2109565634909378</v>
+        <v>0.2109565634909379</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1541695029814421</v>
+        <v>0.1577069180052927</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2793712277985765</v>
+        <v>0.2753123364961538</v>
       </c>
     </row>
     <row r="15">
@@ -6375,19 +6375,19 @@
         <v>14543</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>7889</v>
+        <v>8321</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>24040</v>
+        <v>23054</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1239564720986853</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06723701439684723</v>
+        <v>0.07092181456226167</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2049024209732548</v>
+        <v>0.1965009326615725</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>21</v>
@@ -6396,19 +6396,19 @@
         <v>17030</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>11042</v>
+        <v>10658</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>26576</v>
+        <v>24624</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1420210517020746</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.09208909647771982</v>
+        <v>0.08888170742638563</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2216323453074186</v>
+        <v>0.2053535076585709</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>34</v>
@@ -6417,19 +6417,19 @@
         <v>31573</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>21981</v>
+        <v>23052</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>43569</v>
+        <v>43618</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1330872320918267</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.09265381473060831</v>
+        <v>0.09717104968863582</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1836537627160087</v>
+        <v>0.1838581565139296</v>
       </c>
     </row>
     <row r="17">
@@ -6446,19 +6446,19 @@
         <v>18190</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>10653</v>
+        <v>10977</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>27342</v>
+        <v>28409</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.1550357823828413</v>
+        <v>0.1550357823828412</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.09079926886134879</v>
+        <v>0.09355684975359782</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2330448535283628</v>
+        <v>0.2421355123435552</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>16</v>
@@ -6467,19 +6467,19 @@
         <v>12038</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>7240</v>
+        <v>7181</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>18951</v>
+        <v>19032</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1003940221977973</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.06038057909848789</v>
+        <v>0.05988546100763853</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.158045876857574</v>
+        <v>0.1587205926205606</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>32</v>
@@ -6488,19 +6488,19 @@
         <v>30228</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>21435</v>
+        <v>21397</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>41268</v>
+        <v>41247</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1274170495472975</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.09035251580565057</v>
+        <v>0.09019160313615737</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1739527512896012</v>
+        <v>0.1738641960593711</v>
       </c>
     </row>
     <row r="18">
@@ -6517,19 +6517,19 @@
         <v>45776</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>34303</v>
+        <v>33970</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>58634</v>
+        <v>57952</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3901604541131045</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2923763656428712</v>
+        <v>0.2895392224611519</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4997535474784681</v>
+        <v>0.4939451710771208</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>73</v>
@@ -6538,19 +6538,19 @@
         <v>51440</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>42131</v>
+        <v>41960</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>61193</v>
+        <v>60628</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.4289864053653057</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3513544744019311</v>
+        <v>0.3499246661326232</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.5103196689587366</v>
+        <v>0.5056059500632573</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>114</v>
@@ -6559,19 +6559,19 @@
         <v>97216</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>80491</v>
+        <v>81439</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>111538</v>
+        <v>113475</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.4097850703606224</v>
+        <v>0.4097850703606223</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3392862794023053</v>
+        <v>0.343283014256234</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4701581301884787</v>
+        <v>0.4783205559530212</v>
       </c>
     </row>
     <row r="19">
@@ -6588,19 +6588,19 @@
         <v>32063</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>21154</v>
+        <v>20705</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>44207</v>
+        <v>43397</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.273284980253189</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1803022308209764</v>
+        <v>0.1764786838477361</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.37678671479735</v>
+        <v>0.3698838378380445</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>31</v>
@@ -6609,19 +6609,19 @@
         <v>26283</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>18571</v>
+        <v>18540</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>36619</v>
+        <v>37011</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2191840166143434</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1548705276721977</v>
+        <v>0.1546150737927435</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3053854459701993</v>
+        <v>0.3086539733454643</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>56</v>
@@ -6630,19 +6630,19 @@
         <v>58346</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>45358</v>
+        <v>43336</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>74938</v>
+        <v>72133</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.245939593577748</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1911923347262202</v>
+        <v>0.1826688919546331</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3158814847083941</v>
+        <v>0.3040578382063147</v>
       </c>
     </row>
     <row r="20">
@@ -6659,19 +6659,19 @@
         <v>6753</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2358</v>
+        <v>2603</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>13107</v>
+        <v>14118</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.05756231115217995</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.02010010724539242</v>
+        <v>0.02218268447521688</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1117168157278647</v>
+        <v>0.1203294933604434</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>17</v>
@@ -6680,19 +6680,19 @@
         <v>13120</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>7935</v>
+        <v>8116</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>19348</v>
+        <v>20610</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1094145041204791</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.06617739955096538</v>
+        <v>0.06768491377464209</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1613518803529575</v>
+        <v>0.171876277123714</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>23</v>
@@ -6701,19 +6701,19 @@
         <v>19874</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>12858</v>
+        <v>13408</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>29191</v>
+        <v>29709</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.08377105442250557</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.05420010387542835</v>
+        <v>0.05651866029578108</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1230468030706919</v>
+        <v>0.1252314544949797</v>
       </c>
     </row>
     <row r="21">
@@ -6805,19 +6805,19 @@
         <v>56779</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>42681</v>
+        <v>43003</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>73366</v>
+        <v>72257</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2814411437552509</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2115584139785216</v>
+        <v>0.2131548673525259</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3636590089313989</v>
+        <v>0.3581603499779527</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>33</v>
@@ -6826,19 +6826,19 @@
         <v>26322</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>18806</v>
+        <v>19304</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>35975</v>
+        <v>35220</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2026845751976978</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1448080383458686</v>
+        <v>0.1486398239185415</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2770104866040822</v>
+        <v>0.2712019134338594</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>77</v>
@@ -6847,19 +6847,19 @@
         <v>83102</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>66725</v>
+        <v>67545</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>101468</v>
+        <v>100964</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2505980386672848</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.20121484811118</v>
+        <v>0.2036874230758708</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3059825128163188</v>
+        <v>0.3044621134759608</v>
       </c>
     </row>
     <row r="23">
@@ -6876,19 +6876,19 @@
         <v>21216</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>11941</v>
+        <v>12907</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>31475</v>
+        <v>34060</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.1051647188057389</v>
+        <v>0.1051647188057388</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.05918912096535701</v>
+        <v>0.06397487233179112</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1560156056219083</v>
+        <v>0.1688258126987197</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>18</v>
@@ -6897,19 +6897,19 @@
         <v>14004</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>8864</v>
+        <v>8505</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>22150</v>
+        <v>21291</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1078307245371058</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.06825594439122681</v>
+        <v>0.06548619182401998</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1705606921754945</v>
+        <v>0.1639454118950998</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>36</v>
@@ -6918,19 +6918,19 @@
         <v>35220</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>25677</v>
+        <v>24501</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>48248</v>
+        <v>48453</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.1062087954642792</v>
+        <v>0.1062087954642791</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.07743144157407425</v>
+        <v>0.07388391618896628</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1454937439498367</v>
+        <v>0.146114438042564</v>
       </c>
     </row>
     <row r="24">
@@ -6947,19 +6947,19 @@
         <v>69202</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>55209</v>
+        <v>55450</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>84687</v>
+        <v>85670</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3430203374618582</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2736564734923332</v>
+        <v>0.2748519009888343</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4197737918561338</v>
+        <v>0.4246480977809001</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>64</v>
@@ -6968,19 +6968,19 @@
         <v>43384</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>35430</v>
+        <v>33898</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>53027</v>
+        <v>52805</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.3340634430093573</v>
+        <v>0.3340634430093572</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2728164918953006</v>
+        <v>0.26101851048228</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.40831443999804</v>
+        <v>0.4066020711176669</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>128</v>
@@ -6989,19 +6989,19 @@
         <v>112587</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>94810</v>
+        <v>95146</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>130390</v>
+        <v>130259</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.3395125864015968</v>
+        <v>0.3395125864015967</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2859054919894844</v>
+        <v>0.2869183966019137</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3931981903599999</v>
+        <v>0.3928034102644847</v>
       </c>
     </row>
     <row r="25">
@@ -7018,19 +7018,19 @@
         <v>27432</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>16787</v>
+        <v>17869</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>40226</v>
+        <v>40753</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1359760783860594</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0832084238763863</v>
+        <v>0.08857088292328399</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1993916228473679</v>
+        <v>0.2020010772279558</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>36</v>
@@ -7039,19 +7039,19 @@
         <v>27099</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>19089</v>
+        <v>19855</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>35890</v>
+        <v>36073</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2086630226407645</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1469864238714882</v>
+        <v>0.1528875015235844</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2763561050337318</v>
+        <v>0.2777685738407324</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>59</v>
@@ -7060,19 +7060,19 @@
         <v>54531</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>43027</v>
+        <v>42848</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>70269</v>
+        <v>70629</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1644421619297157</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1297505649913702</v>
+        <v>0.1292119433891101</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2119009648989978</v>
+        <v>0.2129852150232475</v>
       </c>
     </row>
     <row r="26">
@@ -7089,19 +7089,19 @@
         <v>27114</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>16557</v>
+        <v>17424</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>43118</v>
+        <v>43233</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1343977215910928</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.08207159406156558</v>
+        <v>0.08636516888907284</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2137249520341332</v>
+        <v>0.2142971309045049</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>21</v>
@@ -7110,19 +7110,19 @@
         <v>19059</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>12070</v>
+        <v>12226</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>27947</v>
+        <v>28899</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1467582346150746</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.09294243573773189</v>
+        <v>0.09414120736546704</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2151923233387814</v>
+        <v>0.2225251925743467</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>40</v>
@@ -7131,19 +7131,19 @@
         <v>46173</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>33224</v>
+        <v>33693</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>63838</v>
+        <v>64467</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1392384175371236</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1001898251945657</v>
+        <v>0.1016024381827907</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1925085253252537</v>
+        <v>0.1944057009368081</v>
       </c>
     </row>
     <row r="27">
@@ -7235,19 +7235,19 @@
         <v>79925</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>64509</v>
+        <v>62984</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>100352</v>
+        <v>98897</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1684228211706457</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1359369286221664</v>
+        <v>0.1327234122465881</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2114682589896107</v>
+        <v>0.2084013800189665</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>69</v>
@@ -7256,19 +7256,19 @@
         <v>55750</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>43890</v>
+        <v>45034</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>70475</v>
+        <v>71274</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.1441593633053454</v>
+        <v>0.1441593633053455</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1134928990484358</v>
+        <v>0.1164490797774281</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1822359810878957</v>
+        <v>0.1843025172133796</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>134</v>
@@ -7277,19 +7277,19 @@
         <v>135675</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>114512</v>
+        <v>115161</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>159225</v>
+        <v>158482</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1575281991279921</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1329561302171545</v>
+        <v>0.133710023356898</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1848716583632867</v>
+        <v>0.1840085245164015</v>
       </c>
     </row>
     <row r="29">
@@ -7306,19 +7306,19 @@
         <v>49997</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>37494</v>
+        <v>36457</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>68207</v>
+        <v>67461</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1053564343328525</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.07900966844339916</v>
+        <v>0.07682470923386465</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.143730724586581</v>
+        <v>0.1421580629773328</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>57</v>
@@ -7327,19 +7327,19 @@
         <v>45299</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>34857</v>
+        <v>34445</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>59274</v>
+        <v>57209</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1171362502157008</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.09013356510742671</v>
+        <v>0.08906832412676999</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1532725539075208</v>
+        <v>0.1479336142783499</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>99</v>
@@ -7348,19 +7348,19 @@
         <v>95296</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>78020</v>
+        <v>78580</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>117653</v>
+        <v>116163</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1106457316163703</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.09058661414218318</v>
+        <v>0.09123726422358659</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1366038887819769</v>
+        <v>0.1348738552200407</v>
       </c>
     </row>
     <row r="30">
@@ -7377,19 +7377,19 @@
         <v>164981</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>141632</v>
+        <v>143466</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>189826</v>
+        <v>189883</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.3476582552622637</v>
+        <v>0.3476582552622638</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2984556387408595</v>
+        <v>0.3023202347986058</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4000124423883827</v>
+        <v>0.4001321215283021</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>173</v>
@@ -7398,19 +7398,19 @@
         <v>123176</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>107987</v>
+        <v>107381</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>139702</v>
+        <v>138736</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3185109619485114</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2792361221621432</v>
+        <v>0.2776688054495153</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3612459848310355</v>
+        <v>0.3587464855464147</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>318</v>
@@ -7419,19 +7419,19 @@
         <v>288157</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>259848</v>
+        <v>259260</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>316178</v>
+        <v>315825</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3345707247881416</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.301701554144803</v>
+        <v>0.3010188837880436</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.367105110396229</v>
+        <v>0.3666951735379884</v>
       </c>
     </row>
     <row r="31">
@@ -7448,19 +7448,19 @@
         <v>115997</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>94977</v>
+        <v>96046</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>138793</v>
+        <v>139818</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2444366465193137</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2001419502904814</v>
+        <v>0.2023935798850776</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2924730703995944</v>
+        <v>0.2946336908945152</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>119</v>
@@ -7469,19 +7469,19 @@
         <v>95969</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>81472</v>
+        <v>81049</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>112382</v>
+        <v>113516</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.2481588292148682</v>
+        <v>0.2481588292148683</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2106734260380327</v>
+        <v>0.209578508695481</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2906007857433089</v>
+        <v>0.293532487024901</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>213</v>
@@ -7490,19 +7490,19 @@
         <v>211966</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>187460</v>
+        <v>186862</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>239058</v>
+        <v>240734</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2461079570912403</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2176538517249841</v>
+        <v>0.2169603269690458</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2775627467068709</v>
+        <v>0.2795095580943986</v>
       </c>
     </row>
     <row r="32">
@@ -7519,19 +7519,19 @@
         <v>63649</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>45494</v>
+        <v>46330</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>85088</v>
+        <v>87896</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1341258427149244</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.0958682125307885</v>
+        <v>0.09762924345520779</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1793019441645253</v>
+        <v>0.1852186382110668</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>77</v>
@@ -7540,19 +7540,19 @@
         <v>66530</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>52837</v>
+        <v>52934</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>80334</v>
+        <v>81186</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.1720345953155742</v>
+        <v>0.1720345953155741</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1366273958109796</v>
+        <v>0.1368767520310169</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2077296773476634</v>
+        <v>0.2099337755277628</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>119</v>
@@ -7561,19 +7561,19 @@
         <v>130179</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>106461</v>
+        <v>107375</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>156059</v>
+        <v>157118</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1511473873762558</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1236090880775761</v>
+        <v>0.1246699145772809</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1811957764902328</v>
+        <v>0.1824255071821976</v>
       </c>
     </row>
     <row r="33">
